--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4974"/>
+  <dimension ref="A1:C4975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84991,6 +84991,23 @@
         </is>
       </c>
     </row>
+    <row r="4975">
+      <c r="A4975" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B4975" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C4975" t="inlineStr">
+        <is>
+          <t>3.281996821019738</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4975"/>
+  <dimension ref="A1:C4976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85008,6 +85008,23 @@
         </is>
       </c>
     </row>
+    <row r="4976">
+      <c r="A4976" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B4976" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C4976" t="inlineStr">
+        <is>
+          <t>3.3471313934880573</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4976"/>
+  <dimension ref="A1:C4977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85025,6 +85025,23 @@
         </is>
       </c>
     </row>
+    <row r="4977">
+      <c r="A4977" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B4977" t="inlineStr">
+        <is>
+          <t>1755216000</t>
+        </is>
+      </c>
+      <c r="C4977" t="inlineStr">
+        <is>
+          <t>3.208217210581951</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4977"/>
+  <dimension ref="A1:C4978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85042,6 +85042,23 @@
         </is>
       </c>
     </row>
+    <row r="4978">
+      <c r="A4978" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B4978" t="inlineStr">
+        <is>
+          <t>1755302400</t>
+        </is>
+      </c>
+      <c r="C4978" t="inlineStr">
+        <is>
+          <t>3.190968039965901</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4978"/>
+  <dimension ref="A1:C4979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85059,6 +85059,23 @@
         </is>
       </c>
     </row>
+    <row r="4979">
+      <c r="A4979" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B4979" t="inlineStr">
+        <is>
+          <t>1755388800</t>
+        </is>
+      </c>
+      <c r="C4979" t="inlineStr">
+        <is>
+          <t>3.1939514132229725</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4979"/>
+  <dimension ref="A1:C4980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84919,7 +84919,7 @@
       </c>
       <c r="C4970" t="inlineStr">
         <is>
-          <t>3.150050937148659</t>
+          <t>3.1501489012280732</t>
         </is>
       </c>
     </row>
@@ -84936,7 +84936,7 @@
       </c>
       <c r="C4971" t="inlineStr">
         <is>
-          <t>3.1424819167624167</t>
+          <t>3.142575055277529</t>
         </is>
       </c>
     </row>
@@ -84953,7 +84953,7 @@
       </c>
       <c r="C4972" t="inlineStr">
         <is>
-          <t>3.192296921820605</t>
+          <t>3.2125742460822715</t>
         </is>
       </c>
     </row>
@@ -84970,7 +84970,7 @@
       </c>
       <c r="C4973" t="inlineStr">
         <is>
-          <t>3.25361012460804</t>
+          <t>3.1987869917296625</t>
         </is>
       </c>
     </row>
@@ -84987,7 +84987,7 @@
       </c>
       <c r="C4974" t="inlineStr">
         <is>
-          <t>3.2509636011856413</t>
+          <t>3.2371242884990794</t>
         </is>
       </c>
     </row>
@@ -85004,7 +85004,7 @@
       </c>
       <c r="C4975" t="inlineStr">
         <is>
-          <t>3.281996821019738</t>
+          <t>3.3270063494208397</t>
         </is>
       </c>
     </row>
@@ -85021,7 +85021,7 @@
       </c>
       <c r="C4976" t="inlineStr">
         <is>
-          <t>3.3471313934880573</t>
+          <t>3.196117618336916</t>
         </is>
       </c>
     </row>
@@ -85038,7 +85038,7 @@
       </c>
       <c r="C4977" t="inlineStr">
         <is>
-          <t>3.208217210581951</t>
+          <t>3.167643114898452</t>
         </is>
       </c>
     </row>
@@ -85055,7 +85055,7 @@
       </c>
       <c r="C4978" t="inlineStr">
         <is>
-          <t>3.190968039965901</t>
+          <t>3.1692738308045634</t>
         </is>
       </c>
     </row>
@@ -85072,7 +85072,24 @@
       </c>
       <c r="C4979" t="inlineStr">
         <is>
-          <t>3.1939514132229725</t>
+          <t>3.166597879977646</t>
+        </is>
+      </c>
+    </row>
+    <row r="4980">
+      <c r="A4980" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B4980" t="inlineStr">
+        <is>
+          <t>1755475200</t>
+        </is>
+      </c>
+      <c r="C4980" t="inlineStr">
+        <is>
+          <t>3.202084905413793</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5003"/>
+  <dimension ref="A1:B5004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50437,6 +50437,14 @@
       </c>
       <c r="B5003" t="inlineStr"/>
     </row>
+    <row r="5004">
+      <c r="A5004" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B5004" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5004"/>
+  <dimension ref="A1:B5005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50445,6 +50445,14 @@
       </c>
       <c r="B5004" t="inlineStr"/>
     </row>
+    <row r="5005">
+      <c r="A5005" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B5005" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5005"/>
+  <dimension ref="A1:B5006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50453,6 +50453,14 @@
       </c>
       <c r="B5005" t="inlineStr"/>
     </row>
+    <row r="5006">
+      <c r="A5006" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B5006" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5006"/>
+  <dimension ref="A1:B5007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50461,6 +50461,14 @@
       </c>
       <c r="B5006" t="inlineStr"/>
     </row>
+    <row r="5007">
+      <c r="A5007" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B5007" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5007"/>
+  <dimension ref="A1:B4989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50288,186 +50288,42 @@
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
-        </is>
-      </c>
-      <c r="B4986" t="inlineStr"/>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B4986" t="n">
+        <v>3.086</v>
+      </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>3.086</v>
+        <v>3.001</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>3.001</v>
+        <v>3.042</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>3.042</v>
-      </c>
-    </row>
-    <row r="4990">
-      <c r="A4990" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="B4990" t="n">
         <v>3.045</v>
       </c>
-    </row>
-    <row r="4991">
-      <c r="A4991" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-      <c r="B4991" t="inlineStr"/>
-    </row>
-    <row r="4992">
-      <c r="A4992" t="inlineStr">
-        <is>
-          <t>2025-08-30</t>
-        </is>
-      </c>
-      <c r="B4992" t="inlineStr"/>
-    </row>
-    <row r="4993">
-      <c r="A4993" t="inlineStr">
-        <is>
-          <t>2025-08-31</t>
-        </is>
-      </c>
-      <c r="B4993" t="inlineStr"/>
-    </row>
-    <row r="4994">
-      <c r="A4994" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="B4994" t="inlineStr"/>
-    </row>
-    <row r="4995">
-      <c r="A4995" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="B4995" t="inlineStr"/>
-    </row>
-    <row r="4996">
-      <c r="A4996" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="B4996" t="inlineStr"/>
-    </row>
-    <row r="4997">
-      <c r="A4997" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="B4997" t="inlineStr"/>
-    </row>
-    <row r="4998">
-      <c r="A4998" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
-      <c r="B4998" t="inlineStr"/>
-    </row>
-    <row r="4999">
-      <c r="A4999" t="inlineStr">
-        <is>
-          <t>2025-09-06</t>
-        </is>
-      </c>
-      <c r="B4999" t="inlineStr"/>
-    </row>
-    <row r="5000">
-      <c r="A5000" t="inlineStr">
-        <is>
-          <t>2025-09-07</t>
-        </is>
-      </c>
-      <c r="B5000" t="inlineStr"/>
-    </row>
-    <row r="5001">
-      <c r="A5001" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="B5001" t="inlineStr"/>
-    </row>
-    <row r="5002">
-      <c r="A5002" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-      <c r="B5002" t="inlineStr"/>
-    </row>
-    <row r="5003">
-      <c r="A5003" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-      <c r="B5003" t="inlineStr"/>
-    </row>
-    <row r="5004">
-      <c r="A5004" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-      <c r="B5004" t="inlineStr"/>
-    </row>
-    <row r="5005">
-      <c r="A5005" t="inlineStr">
-        <is>
-          <t>2025-09-12</t>
-        </is>
-      </c>
-      <c r="B5005" t="inlineStr"/>
-    </row>
-    <row r="5006">
-      <c r="A5006" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="B5006" t="inlineStr"/>
-    </row>
-    <row r="5007">
-      <c r="A5007" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="B5007" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5350"/>
+  <dimension ref="A1:B5351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53935,6 +53935,16 @@
         <v>3.155</v>
       </c>
     </row>
+    <row r="5351">
+      <c r="A5351" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B5351" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5351"/>
+  <dimension ref="A1:B5352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53945,6 +53945,16 @@
         <v>3.17</v>
       </c>
     </row>
+    <row r="5352">
+      <c r="A5352" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B5352" t="n">
+        <v>3.199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5352"/>
+  <dimension ref="A1:B5353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53955,6 +53955,16 @@
         <v>3.199</v>
       </c>
     </row>
+    <row r="5353">
+      <c r="A5353" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B5353" t="n">
+        <v>3.171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5353"/>
+  <dimension ref="A1:B5354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53965,6 +53965,16 @@
         <v>3.171</v>
       </c>
     </row>
+    <row r="5354">
+      <c r="A5354" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B5354" t="n">
+        <v>3.159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5354"/>
+  <dimension ref="A1:B5355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53975,6 +53975,16 @@
         <v>3.159</v>
       </c>
     </row>
+    <row r="5355">
+      <c r="A5355" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B5355" t="n">
+        <v>3.153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5355"/>
+  <dimension ref="A1:B5356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53985,6 +53985,16 @@
         <v>3.153</v>
       </c>
     </row>
+    <row r="5356">
+      <c r="A5356" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B5356" t="n">
+        <v>3.085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5356"/>
+  <dimension ref="A1:B5357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53995,6 +53995,16 @@
         <v>3.085</v>
       </c>
     </row>
+    <row r="5357">
+      <c r="A5357" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B5357" t="n">
+        <v>3.069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5357"/>
+  <dimension ref="A1:B5358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54005,6 +54005,16 @@
         <v>3.069</v>
       </c>
     </row>
+    <row r="5358">
+      <c r="A5358" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B5358" t="n">
+        <v>3.077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5358"/>
+  <dimension ref="A1:B5359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54015,6 +54015,16 @@
         <v>3.077</v>
       </c>
     </row>
+    <row r="5359">
+      <c r="A5359" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B5359" t="n">
+        <v>3.021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5359"/>
+  <dimension ref="A1:B5360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54025,6 +54025,16 @@
         <v>3.021</v>
       </c>
     </row>
+    <row r="5360">
+      <c r="A5360" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B5360" t="n">
+        <v>2.978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5360"/>
+  <dimension ref="A1:B5361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54035,6 +54035,16 @@
         <v>2.978</v>
       </c>
     </row>
+    <row r="5361">
+      <c r="A5361" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B5361" t="n">
+        <v>2.978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5361"/>
+  <dimension ref="A1:B5362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54045,6 +54045,16 @@
         <v>2.978</v>
       </c>
     </row>
+    <row r="5362">
+      <c r="A5362" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B5362" t="n">
+        <v>2.986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5362"/>
+  <dimension ref="A1:B5363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54055,6 +54055,16 @@
         <v>2.986</v>
       </c>
     </row>
+    <row r="5363">
+      <c r="A5363" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B5363" t="n">
+        <v>3.065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5363"/>
+  <dimension ref="A1:B5364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54065,6 +54065,16 @@
         <v>3.065</v>
       </c>
     </row>
+    <row r="5364">
+      <c r="A5364" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5364" t="n">
+        <v>3.085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5364"/>
+  <dimension ref="A1:B5365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54075,6 +54075,16 @@
         <v>3.085</v>
       </c>
     </row>
+    <row r="5365">
+      <c r="A5365" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B5365" t="n">
+        <v>3.154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5365"/>
+  <dimension ref="A1:B5367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54085,6 +54085,26 @@
         <v>3.154</v>
       </c>
     </row>
+    <row r="5366">
+      <c r="A5366" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B5366" t="n">
+        <v>3.294</v>
+      </c>
+    </row>
+    <row r="5367">
+      <c r="A5367" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B5367" t="n">
+        <v>3.294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5367"/>
+  <dimension ref="A1:B5368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54105,6 +54105,16 @@
         <v>3.294</v>
       </c>
     </row>
+    <row r="5368">
+      <c r="A5368" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B5368" t="n">
+        <v>3.294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5368"/>
+  <dimension ref="A1:B5369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54115,6 +54115,16 @@
         <v>3.294</v>
       </c>
     </row>
+    <row r="5369">
+      <c r="A5369" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5369" t="n">
+        <v>3.347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5369"/>
+  <dimension ref="A1:B5370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54125,6 +54125,16 @@
         <v>3.347</v>
       </c>
     </row>
+    <row r="5370">
+      <c r="A5370" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5370" t="n">
+        <v>3.377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5370"/>
+  <dimension ref="A1:B5372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54135,6 +54135,26 @@
         <v>3.377</v>
       </c>
     </row>
+    <row r="5371">
+      <c r="A5371" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B5371" t="n">
+        <v>3.322</v>
+      </c>
+    </row>
+    <row r="5372">
+      <c r="A5372" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B5372" t="n">
+        <v>3.322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5372"/>
+  <dimension ref="A1:B5373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54155,6 +54155,16 @@
         <v>3.322</v>
       </c>
     </row>
+    <row r="5373">
+      <c r="A5373" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B5373" t="n">
+        <v>3.302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5373"/>
+  <dimension ref="A1:B5374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54165,6 +54165,16 @@
         <v>3.302</v>
       </c>
     </row>
+    <row r="5374">
+      <c r="A5374" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B5374" t="n">
+        <v>3.302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5374"/>
+  <dimension ref="A1:B5375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54175,6 +54175,16 @@
         <v>3.302</v>
       </c>
     </row>
+    <row r="5375">
+      <c r="A5375" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B5375" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5375"/>
+  <dimension ref="A1:B5376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54185,6 +54185,16 @@
         <v>3.03</v>
       </c>
     </row>
+    <row r="5376">
+      <c r="A5376" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B5376" t="n">
+        <v>3.047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5376"/>
+  <dimension ref="A1:B5377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54195,6 +54195,16 @@
         <v>3.047</v>
       </c>
     </row>
+    <row r="5377">
+      <c r="A5377" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B5377" t="n">
+        <v>3.118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5377"/>
+  <dimension ref="A1:B5378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54205,6 +54205,16 @@
         <v>3.118</v>
       </c>
     </row>
+    <row r="5378">
+      <c r="A5378" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B5378" t="n">
+        <v>3.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5378"/>
+  <dimension ref="A1:B5379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54215,6 +54215,16 @@
         <v>3.057</v>
       </c>
     </row>
+    <row r="5379">
+      <c r="A5379" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B5379" t="n">
+        <v>3.036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5379"/>
+  <dimension ref="A1:B5380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54225,6 +54225,16 @@
         <v>3.036</v>
       </c>
     </row>
+    <row r="5380">
+      <c r="A5380" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B5380" t="n">
+        <v>2.986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5380"/>
+  <dimension ref="A1:B5381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54235,6 +54235,16 @@
         <v>2.986</v>
       </c>
     </row>
+    <row r="5381">
+      <c r="A5381" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B5381" t="n">
+        <v>2.894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5381"/>
+  <dimension ref="A1:B5382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54245,6 +54245,16 @@
         <v>2.894</v>
       </c>
     </row>
+    <row r="5382">
+      <c r="A5382" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B5382" t="n">
+        <v>2.899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5382"/>
+  <dimension ref="A1:B5383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54255,6 +54255,16 @@
         <v>2.899</v>
       </c>
     </row>
+    <row r="5383">
+      <c r="A5383" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B5383" t="n">
+        <v>2.923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5383"/>
+  <dimension ref="A1:B5384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54265,6 +54265,16 @@
         <v>2.923</v>
       </c>
     </row>
+    <row r="5384">
+      <c r="A5384" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B5384" t="n">
+        <v>2.991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5384"/>
+  <dimension ref="A1:B5385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54275,6 +54275,16 @@
         <v>2.991</v>
       </c>
     </row>
+    <row r="5385">
+      <c r="A5385" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B5385" t="n">
+        <v>2.966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5385"/>
+  <dimension ref="A1:B5386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54285,6 +54285,16 @@
         <v>2.966</v>
       </c>
     </row>
+    <row r="5386">
+      <c r="A5386" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B5386" t="n">
+        <v>2.913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5386"/>
+  <dimension ref="A1:B5387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54295,6 +54295,16 @@
         <v>2.913</v>
       </c>
     </row>
+    <row r="5387">
+      <c r="A5387" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B5387" t="n">
+        <v>2.946</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5387"/>
+  <dimension ref="A1:B5388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54305,6 +54305,16 @@
         <v>2.946</v>
       </c>
     </row>
+    <row r="5388">
+      <c r="A5388" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B5388" t="n">
+        <v>2.975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5388"/>
+  <dimension ref="A1:B5390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54315,6 +54315,26 @@
         <v>2.975</v>
       </c>
     </row>
+    <row r="5389">
+      <c r="A5389" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B5389" t="n">
+        <v>3.014</v>
+      </c>
+    </row>
+    <row r="5390">
+      <c r="A5390" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5390" t="n">
+        <v>3.014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5390"/>
+  <dimension ref="A1:B5391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54335,6 +54335,16 @@
         <v>3.014</v>
       </c>
     </row>
+    <row r="5391">
+      <c r="A5391" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5391" t="n">
+        <v>3.074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5391"/>
+  <dimension ref="A1:B5392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54345,6 +54345,16 @@
         <v>3.074</v>
       </c>
     </row>
+    <row r="5392">
+      <c r="A5392" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5392" t="n">
+        <v>3.051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5392"/>
+  <dimension ref="A1:B5394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54355,6 +54355,26 @@
         <v>3.051</v>
       </c>
     </row>
+    <row r="5393">
+      <c r="A5393" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5393" t="n">
+        <v>2.915</v>
+      </c>
+    </row>
+    <row r="5394">
+      <c r="A5394" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B5394" t="n">
+        <v>2.915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5394"/>
+  <dimension ref="A1:B5395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54375,6 +54375,16 @@
         <v>2.915</v>
       </c>
     </row>
+    <row r="5395">
+      <c r="A5395" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B5395" t="n">
+        <v>2.915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5395"/>
+  <dimension ref="A1:B5396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54385,6 +54385,16 @@
         <v>2.915</v>
       </c>
     </row>
+    <row r="5396">
+      <c r="A5396" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B5396" t="n">
+        <v>2.934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5396"/>
+  <dimension ref="A1:B5397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54395,6 +54395,16 @@
         <v>2.934</v>
       </c>
     </row>
+    <row r="5397">
+      <c r="A5397" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B5397" t="n">
+        <v>2.941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5397"/>
+  <dimension ref="A1:B5398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54405,6 +54405,16 @@
         <v>2.941</v>
       </c>
     </row>
+    <row r="5398">
+      <c r="A5398" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B5398" t="n">
+        <v>2.941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5398"/>
+  <dimension ref="A1:B5400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54415,6 +54415,26 @@
         <v>2.941</v>
       </c>
     </row>
+    <row r="5399">
+      <c r="A5399" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B5399" t="n">
+        <v>2.763</v>
+      </c>
+    </row>
+    <row r="5400">
+      <c r="A5400" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B5400" t="n">
+        <v>2.701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5400"/>
+  <dimension ref="A1:B5413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54435,6 +54435,136 @@
         <v>2.701</v>
       </c>
     </row>
+    <row r="5401">
+      <c r="A5401" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B5401" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5402">
+      <c r="A5402" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B5402" t="n">
+        <v>2.695</v>
+      </c>
+    </row>
+    <row r="5403">
+      <c r="A5403" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B5403" t="n">
+        <v>2.695</v>
+      </c>
+    </row>
+    <row r="5404">
+      <c r="A5404" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B5404" t="n">
+        <v>2.709</v>
+      </c>
+    </row>
+    <row r="5405">
+      <c r="A5405" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B5405" t="n">
+        <v>2.792</v>
+      </c>
+    </row>
+    <row r="5406">
+      <c r="A5406" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B5406" t="n">
+        <v>2.759</v>
+      </c>
+    </row>
+    <row r="5407">
+      <c r="A5407" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B5407" t="n">
+        <v>2.719</v>
+      </c>
+    </row>
+    <row r="5408">
+      <c r="A5408" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B5408" t="n">
+        <v>2.551</v>
+      </c>
+    </row>
+    <row r="5409">
+      <c r="A5409" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B5409" t="n">
+        <v>2.551</v>
+      </c>
+    </row>
+    <row r="5410">
+      <c r="A5410" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B5410" t="n">
+        <v>2.527</v>
+      </c>
+    </row>
+    <row r="5411">
+      <c r="A5411" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B5411" t="n">
+        <v>2.506</v>
+      </c>
+    </row>
+    <row r="5412">
+      <c r="A5412" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B5412" t="n">
+        <v>2.506</v>
+      </c>
+    </row>
+    <row r="5413">
+      <c r="A5413" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B5413" t="n">
+        <v>2.427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5413"/>
+  <dimension ref="A1:B5419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54565,6 +54565,66 @@
         <v>2.427</v>
       </c>
     </row>
+    <row r="5414">
+      <c r="A5414" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B5414" t="n">
+        <v>2.408</v>
+      </c>
+    </row>
+    <row r="5415">
+      <c r="A5415" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B5415" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="5416">
+      <c r="A5416" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B5416" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="5417">
+      <c r="A5417" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B5417" t="n">
+        <v>2.382</v>
+      </c>
+    </row>
+    <row r="5418">
+      <c r="A5418" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B5418" t="n">
+        <v>2.382</v>
+      </c>
+    </row>
+    <row r="5419">
+      <c r="A5419" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B5419" t="n">
+        <v>2.401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5419"/>
+  <dimension ref="A1:B5422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54625,6 +54625,36 @@
         <v>2.401</v>
       </c>
     </row>
+    <row r="5420">
+      <c r="A5420" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B5420" t="n">
+        <v>2.402</v>
+      </c>
+    </row>
+    <row r="5421">
+      <c r="A5421" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B5421" t="n">
+        <v>2.423</v>
+      </c>
+    </row>
+    <row r="5422">
+      <c r="A5422" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B5422" t="n">
+        <v>2.502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5422"/>
+  <dimension ref="A1:B5425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54655,6 +54655,36 @@
         <v>2.502</v>
       </c>
     </row>
+    <row r="5423">
+      <c r="A5423" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B5423" t="n">
+        <v>2.477</v>
+      </c>
+    </row>
+    <row r="5424">
+      <c r="A5424" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B5424" t="n">
+        <v>2.477</v>
+      </c>
+    </row>
+    <row r="5425">
+      <c r="A5425" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B5425" t="n">
+        <v>2.488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5425"/>
+  <dimension ref="A1:B5427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54685,6 +54685,26 @@
         <v>2.488</v>
       </c>
     </row>
+    <row r="5426">
+      <c r="A5426" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B5426" t="n">
+        <v>2.349</v>
+      </c>
+    </row>
+    <row r="5427">
+      <c r="A5427" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B5427" t="n">
+        <v>2.412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5427"/>
+  <dimension ref="A1:B5428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54705,6 +54705,16 @@
         <v>2.412</v>
       </c>
     </row>
+    <row r="5428">
+      <c r="A5428" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B5428" t="n">
+        <v>2.531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5428"/>
+  <dimension ref="A1:B5429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54715,6 +54715,16 @@
         <v>2.531</v>
       </c>
     </row>
+    <row r="5429">
+      <c r="A5429" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B5429" t="n">
+        <v>2.528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5429"/>
+  <dimension ref="A1:B5432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54725,6 +54725,36 @@
         <v>2.528</v>
       </c>
     </row>
+    <row r="5430">
+      <c r="A5430" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B5430" t="n">
+        <v>2.428</v>
+      </c>
+    </row>
+    <row r="5431">
+      <c r="A5431" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B5431" t="n">
+        <v>2.433</v>
+      </c>
+    </row>
+    <row r="5432">
+      <c r="A5432" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B5432" t="n">
+        <v>2.433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5432"/>
+  <dimension ref="A1:B5435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54755,6 +54755,36 @@
         <v>2.433</v>
       </c>
     </row>
+    <row r="5433">
+      <c r="A5433" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B5433" t="n">
+        <v>2.469</v>
+      </c>
+    </row>
+    <row r="5434">
+      <c r="A5434" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B5434" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="5435">
+      <c r="A5435" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B5435" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5435"/>
+  <dimension ref="A1:B5441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54785,6 +54785,66 @@
         <v>2.51</v>
       </c>
     </row>
+    <row r="5436">
+      <c r="A5436" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B5436" t="n">
+        <v>2.452</v>
+      </c>
+    </row>
+    <row r="5437">
+      <c r="A5437" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B5437" t="n">
+        <v>2.479</v>
+      </c>
+    </row>
+    <row r="5438">
+      <c r="A5438" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B5438" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="5439">
+      <c r="A5439" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B5439" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="5440">
+      <c r="A5440" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5440" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="5441">
+      <c r="A5441" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5441" t="n">
+        <v>2.335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5441"/>
+  <dimension ref="A1:B5442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54845,6 +54845,16 @@
         <v>2.335</v>
       </c>
     </row>
+    <row r="5442">
+      <c r="A5442" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5442" t="n">
+        <v>2.286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5442"/>
+  <dimension ref="A1:B5443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54855,6 +54855,16 @@
         <v>2.286</v>
       </c>
     </row>
+    <row r="5443">
+      <c r="A5443" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B5443" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5443"/>
+  <dimension ref="A1:B5446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54865,6 +54865,36 @@
         <v>2.3</v>
       </c>
     </row>
+    <row r="5444">
+      <c r="A5444" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B5444" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="5445">
+      <c r="A5445" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B5445" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="5446">
+      <c r="A5446" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B5446" t="n">
+        <v>2.322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5446"/>
+  <dimension ref="A1:B5450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54895,6 +54895,46 @@
         <v>2.322</v>
       </c>
     </row>
+    <row r="5447">
+      <c r="A5447" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B5447" t="n">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="5448">
+      <c r="A5448" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B5448" t="n">
+        <v>2.287</v>
+      </c>
+    </row>
+    <row r="5449">
+      <c r="A5449" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B5449" t="n">
+        <v>2.301</v>
+      </c>
+    </row>
+    <row r="5450">
+      <c r="A5450" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B5450" t="n">
+        <v>2.321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5450"/>
+  <dimension ref="A1:B5453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54935,6 +54935,36 @@
         <v>2.321</v>
       </c>
     </row>
+    <row r="5451">
+      <c r="A5451" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B5451" t="n">
+        <v>2.281</v>
+      </c>
+    </row>
+    <row r="5452">
+      <c r="A5452" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B5452" t="n">
+        <v>2.278</v>
+      </c>
+    </row>
+    <row r="5453">
+      <c r="A5453" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B5453" t="n">
+        <v>2.338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_lth.xlsx
+++ b/data_cripto/btc_mvrvz_lth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5453"/>
+  <dimension ref="A1:B5457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54965,6 +54965,46 @@
         <v>2.338</v>
       </c>
     </row>
+    <row r="5454">
+      <c r="A5454" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B5454" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="5455">
+      <c r="A5455" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B5455" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5456">
+      <c r="A5456" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B5456" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="5457">
+      <c r="A5457" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B5457" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
